--- a/ParkByeongHyeon/kakao_vectors.xlsx
+++ b/ParkByeongHyeon/kakao_vectors.xlsx
@@ -567,25 +567,25 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -662,16 +662,16 @@
     </row>
     <row r="3" spans="1:31">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,22 +683,22 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -734,30 +734,30 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:31">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ParkByeongHyeon/kakao_vectors.xlsx
+++ b/ParkByeongHyeon/kakao_vectors.xlsx
@@ -573,19 +573,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -683,22 +683,22 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="4" spans="1:31">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1209,25 +1209,25 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
